--- a/data/raw/Data Thomas.xlsx
+++ b/data/raw/Data Thomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF6930A-6D71-422A-8E97-F7411971FC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5425CD1-DC4B-4F9B-9802-456FC4F7B504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381C8BB-E21A-4143-8742-EF4DFE92B827}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2027,29 +2027,29 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
       <c r="B33">
         <v>1588.68</v>
       </c>
-      <c r="K33" s="1">
+      <c r="C33" s="1">
         <v>381438.28</v>
       </c>
-      <c r="L33" s="1">
+      <c r="D33" s="1">
         <v>194352</v>
       </c>
-      <c r="M33" s="2">
+      <c r="E33" s="2">
         <v>9462</v>
       </c>
-      <c r="N33">
+      <c r="F33">
         <v>473</v>
       </c>
-      <c r="O33" s="2">
+      <c r="G33" s="2">
         <v>5302</v>
       </c>
-      <c r="P33" s="2">
+      <c r="H33" s="2">
         <v>3687</v>
       </c>
     </row>

--- a/data/raw/Data Thomas.xlsx
+++ b/data/raw/Data Thomas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5425CD1-DC4B-4F9B-9802-456FC4F7B504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B369A0-F0B7-497E-B868-7E5CB8940526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="948" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381C8BB-E21A-4143-8742-EF4DFE92B827}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:P33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/Data Thomas.xlsx
+++ b/data/raw/Data Thomas.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B369A0-F0B7-497E-B868-7E5CB8940526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBFC01B-27F0-4D86-9747-0E7D6AD32F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="948" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Description" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>Species</t>
   </si>
@@ -197,14 +209,103 @@
   </si>
   <si>
     <t>Bosnia Herzegovina</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>tons/ha</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Maximum Potential of biomass per species. This was estimated using experimental data</t>
+  </si>
+  <si>
+    <t>Total Area in each country.</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>Area of each species in country ("Beech" etc. Variables)</t>
+  </si>
+  <si>
+    <t>m^3</t>
+  </si>
+  <si>
+    <t>Current Volume in each Country</t>
+  </si>
+  <si>
+    <t>t/m^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current carbon stock </t>
+  </si>
+  <si>
+    <t>Current gross increment in Volume</t>
+  </si>
+  <si>
+    <t>m^3/ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Volume per area </t>
+  </si>
+  <si>
+    <t>Current gross increment in Volume/area</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>Conversion factor (biomass densities)</t>
+  </si>
+  <si>
+    <t>Volume_total</t>
+  </si>
+  <si>
+    <t>Gross_total</t>
+  </si>
+  <si>
+    <t>A_ton</t>
+  </si>
+  <si>
+    <t>Maximum Potential of biomass per species. Result of A_ton*biomass densities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -220,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -228,14 +329,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -516,19 +738,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -547,8 +771,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -567,8 +797,15 @@
       <c r="F2">
         <v>0.97740000000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H2">
+        <f>PRODUCT(C2,G2)</f>
+        <v>362.88274000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -587,8 +824,15 @@
       <c r="F3">
         <v>0.9546</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0.41</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="0">PRODUCT(C3,G3)</f>
+        <v>184.37011199999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -607,8 +851,15 @@
       <c r="F4">
         <v>0.96289999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0.38</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>141.819534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -627,8 +878,15 @@
       <c r="F5">
         <v>0.96840000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0.49</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>175.55783699999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -647,8 +905,15 @@
       <c r="F6">
         <v>0.95850000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>567.9492560000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -667,8 +932,15 @@
       <c r="F7">
         <v>0.97570000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0.43</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>160.556625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -686,6 +958,13 @@
       </c>
       <c r="F8">
         <v>0.97989999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.38</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>244.49078399999999</v>
       </c>
     </row>
   </sheetData>
@@ -695,15 +974,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381C8BB-E21A-4143-8742-EF4DFE92B827}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -735,13 +1014,13 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -752,8 +1031,14 @@
       <c r="P1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -799,8 +1084,16 @@
       <c r="P2">
         <v>454</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2">
+        <f>QUOTIENT(K2,B2)</f>
+        <v>264</v>
+      </c>
+      <c r="R2">
+        <f>QUOTIENT(M2,B2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -843,8 +1136,16 @@
       <c r="P3" s="2">
         <v>7447</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q33" si="0">QUOTIENT(K3,B3)</f>
+        <v>184</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R33" si="1">QUOTIENT(M3,B3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -893,8 +1194,16 @@
       <c r="P4" s="2">
         <v>-13920</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -943,8 +1252,16 @@
       <c r="P5" s="2">
         <v>1378</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -993,8 +1310,16 @@
       <c r="P6" s="2">
         <v>-2333</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>331</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1043,8 +1368,16 @@
       <c r="P7">
         <v>911</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1093,8 +1426,16 @@
       <c r="P8" s="2">
         <v>4154</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1140,8 +1481,16 @@
       <c r="P9" s="2">
         <v>2775</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1181,8 +1530,16 @@
       <c r="P10" s="2">
         <v>18793</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1231,8 +1588,16 @@
       <c r="P11" s="2">
         <v>60119</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1281,8 +1646,16 @@
       <c r="P12" s="2">
         <v>2887</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1328,8 +1701,16 @@
       <c r="P13" s="2">
         <v>17861</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1351,8 +1732,16 @@
       <c r="P14">
         <v>192</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1386,8 +1775,16 @@
       <c r="P15" s="2">
         <v>2103</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1427,8 +1824,16 @@
       <c r="P16" s="2">
         <v>9006</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1450,8 +1855,16 @@
       <c r="P17">
         <v>430</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1494,16 +1907,32 @@
       <c r="P18" s="2">
         <v>1379</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1552,8 +1981,16 @@
       <c r="P20">
         <v>-27</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1602,8 +2039,16 @@
       <c r="P21" s="2">
         <v>6112</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1652,8 +2097,16 @@
       <c r="P22" s="2">
         <v>25211</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1690,8 +2143,16 @@
       <c r="P23">
         <v>793</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1734,8 +2195,16 @@
       <c r="P24" s="2">
         <v>33025</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1760,8 +2229,16 @@
       <c r="P25" s="2">
         <v>2630</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1801,8 +2278,16 @@
       <c r="P26" s="2">
         <v>4321</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1848,8 +2333,16 @@
       <c r="O27" s="2">
         <v>35040</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1898,8 +2391,16 @@
       <c r="P28" s="2">
         <v>17223</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1909,8 +2410,16 @@
       <c r="L29">
         <v>907.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1950,8 +2459,16 @@
       <c r="M30" s="2">
         <v>23867</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <f>QUOTIENT(K30,B30)</f>
+        <v>84</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1976,8 +2493,16 @@
       <c r="P31" s="2">
         <v>2322</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -2026,8 +2551,16 @@
       <c r="P32" s="2">
         <v>5504</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -2052,6 +2585,197 @@
       <c r="H33" s="2">
         <v>3687</v>
       </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1ED5BD-A9BB-4C9D-A1DE-B4054A2771B8}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="57.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/raw/Data Thomas.xlsx
+++ b/data/raw/Data Thomas.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBFC01B-27F0-4D86-9747-0E7D6AD32F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBDFB3-F705-4708-84B8-FF3870A14D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="96" windowWidth="11712" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Description" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId3"/>
+    <sheet name="Description" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>Species</t>
   </si>
@@ -205,9 +206,6 @@
     <t>Other conif.</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>Bosnia Herzegovina</t>
   </si>
   <si>
@@ -281,13 +279,22 @@
   </si>
   <si>
     <t>Maximum Potential of biomass per species. Result of A_ton*biomass densities</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Countries excluded</t>
+  </si>
+  <si>
+    <t>Data not available in all approaches</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,13 +319,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -438,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -458,6 +477,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -740,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -760,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -772,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -974,10 +996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381C8BB-E21A-4143-8742-EF4DFE92B827}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -1040,880 +1062,886 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>689</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3889.6</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>380</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <v>53</v>
+        <v>429</v>
       </c>
       <c r="F2">
-        <v>185</v>
+        <v>1678</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="H2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2">
-        <v>181937</v>
+        <v>210</v>
+      </c>
+      <c r="J2">
+        <v>1008</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1223745.96</v>
       </c>
       <c r="L2" s="1">
-        <v>71825.100000000006</v>
+        <v>408436</v>
       </c>
       <c r="M2" s="2">
-        <v>8011</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1545</v>
+        <v>26391</v>
+      </c>
+      <c r="N2">
+        <v>620</v>
       </c>
       <c r="O2" s="2">
-        <v>6011</v>
-      </c>
-      <c r="P2">
-        <v>454</v>
+        <v>19659</v>
+      </c>
+      <c r="P2" s="2">
+        <v>6112</v>
       </c>
       <c r="Q2">
         <f>QUOTIENT(K2,B2)</f>
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="R2">
         <f>QUOTIENT(M2,B2)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3896</v>
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>689</v>
       </c>
       <c r="C3">
-        <v>623.36</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1169</v>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>779</v>
+        <v>53</v>
       </c>
       <c r="F3">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>896</v>
+        <v>76</v>
       </c>
       <c r="I3">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>718410</v>
+        <v>181937</v>
       </c>
       <c r="L3" s="1">
-        <v>408881.8</v>
+        <v>71825.100000000006</v>
       </c>
       <c r="M3" s="2">
-        <v>13560</v>
+        <v>8011</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1545</v>
       </c>
       <c r="O3" s="2">
-        <v>6113</v>
-      </c>
-      <c r="P3" s="2">
-        <v>7447</v>
+        <v>6011</v>
+      </c>
+      <c r="P3">
+        <v>454</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q33" si="0">QUOTIENT(K3,B3)</f>
-        <v>184</v>
+        <f>QUOTIENT(K3,B3)</f>
+        <v>264</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R33" si="1">QUOTIENT(M3,B3)</f>
-        <v>3</v>
+        <f>QUOTIENT(M3,B3)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
-        <v>2677.09</v>
+        <v>3896</v>
       </c>
       <c r="C4">
-        <v>235.755</v>
-      </c>
-      <c r="D4">
-        <v>195.25200000000001</v>
+        <v>623.36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1169</v>
       </c>
       <c r="E4">
-        <v>303.60000000000002</v>
+        <v>779</v>
       </c>
       <c r="F4">
-        <v>1274.241</v>
+        <v>156</v>
       </c>
       <c r="G4">
-        <v>31.428999999999998</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>419.87400000000002</v>
+        <v>896</v>
       </c>
       <c r="I4">
-        <v>110.884</v>
-      </c>
-      <c r="J4">
-        <v>106</v>
-      </c>
-      <c r="K4" s="1">
-        <v>770855.89</v>
+        <v>78</v>
+      </c>
+      <c r="K4" s="2">
+        <v>718410</v>
       </c>
       <c r="L4" s="1">
-        <v>257134.5</v>
+        <v>408881.8</v>
       </c>
       <c r="M4" s="2">
-        <v>36301</v>
-      </c>
-      <c r="N4" s="2">
-        <v>12369</v>
+        <v>13560</v>
       </c>
       <c r="O4" s="2">
-        <v>37852</v>
+        <v>6113</v>
       </c>
       <c r="P4" s="2">
-        <v>-13920</v>
+        <v>7447</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>287</v>
+        <f>QUOTIENT(K4,B4)</f>
+        <v>184</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>QUOTIENT(M4,B4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>628.44000000000005</v>
-      </c>
-      <c r="C5">
-        <v>82.3</v>
-      </c>
-      <c r="D5">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="E5">
-        <v>158.9</v>
-      </c>
-      <c r="F5">
-        <v>80.3</v>
-      </c>
-      <c r="G5">
-        <v>64.8</v>
-      </c>
-      <c r="H5">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="I5">
-        <v>84.4</v>
-      </c>
-      <c r="J5">
-        <v>28.5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>138295</v>
+        <v>172.54</v>
+      </c>
+      <c r="K5" s="1">
+        <v>12061.06</v>
       </c>
       <c r="L5" s="1">
-        <v>40584.699999999997</v>
-      </c>
-      <c r="M5" s="2">
-        <v>6644</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1676</v>
-      </c>
-      <c r="O5" s="2">
-        <v>3590</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1378</v>
+        <v>4352.8999999999996</v>
+      </c>
+      <c r="M5">
+        <v>203</v>
+      </c>
+      <c r="O5">
+        <v>11</v>
+      </c>
+      <c r="P5">
+        <v>192</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <f>QUOTIENT(K5,B5)</f>
+        <v>69</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>QUOTIENT(M5,B5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>11468.09</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1680.1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1129.7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1917.5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2763.2</v>
+        <v>2677.09</v>
+      </c>
+      <c r="C6">
+        <v>235.755</v>
+      </c>
+      <c r="D6">
+        <v>195.25200000000001</v>
+      </c>
+      <c r="E6">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="F6">
+        <v>1274.241</v>
       </c>
       <c r="G6">
-        <v>182.8</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2429.6</v>
+        <v>31.428999999999998</v>
+      </c>
+      <c r="H6">
+        <v>419.87400000000002</v>
       </c>
       <c r="I6">
-        <v>524.70000000000005</v>
+        <v>110.884</v>
       </c>
       <c r="J6">
-        <v>260.5</v>
+        <v>106</v>
       </c>
       <c r="K6" s="1">
-        <v>3798214.2</v>
+        <v>770855.89</v>
       </c>
       <c r="L6" s="1">
-        <v>1221947.2</v>
+        <v>257134.5</v>
       </c>
       <c r="M6" s="2">
-        <v>99758</v>
+        <v>36301</v>
       </c>
       <c r="N6" s="2">
-        <v>6811</v>
+        <v>12369</v>
       </c>
       <c r="O6" s="2">
-        <v>95280</v>
+        <v>37852</v>
       </c>
       <c r="P6" s="2">
-        <v>-2333</v>
+        <v>-13920</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>331</v>
+        <f>QUOTIENT(K6,B6)</f>
+        <v>287</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>QUOTIENT(M6,B6)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2438.4</v>
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>628.44000000000005</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>82.3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E7">
-        <v>1134</v>
+        <v>158.9</v>
       </c>
       <c r="F7">
-        <v>441.8</v>
+        <v>80.3</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>64.8</v>
       </c>
       <c r="H7">
-        <v>739.3</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="I7">
-        <v>38.9</v>
+        <v>84.4</v>
       </c>
       <c r="J7">
-        <v>84.4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>513233.9</v>
+        <v>28.5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>138295</v>
       </c>
       <c r="L7" s="1">
-        <v>164079.9</v>
+        <v>40584.699999999997</v>
       </c>
       <c r="M7" s="2">
-        <v>14371</v>
+        <v>6644</v>
       </c>
       <c r="N7" s="2">
-        <v>1281</v>
+        <v>1676</v>
       </c>
       <c r="O7" s="2">
-        <v>12179</v>
-      </c>
-      <c r="P7">
-        <v>911</v>
+        <v>3590</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1378</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>210</v>
+        <f>QUOTIENT(K7,B7)</f>
+        <v>220</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>QUOTIENT(M7,B7)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>799.14</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2438.4</v>
       </c>
       <c r="C8">
-        <v>10.72</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>20.28</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>179.16</v>
+        <v>1134</v>
       </c>
       <c r="F8">
-        <v>27.03</v>
+        <v>441.8</v>
       </c>
       <c r="G8">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>71.19</v>
+        <v>739.3</v>
       </c>
       <c r="I8">
-        <v>402.91</v>
+        <v>38.9</v>
       </c>
       <c r="J8">
-        <v>86</v>
+        <v>84.4</v>
       </c>
       <c r="K8" s="1">
-        <v>128950.2</v>
+        <v>513233.9</v>
       </c>
       <c r="L8" s="1">
-        <v>53028.800000000003</v>
+        <v>164079.9</v>
       </c>
       <c r="M8" s="2">
-        <v>8477</v>
-      </c>
-      <c r="N8">
-        <v>432</v>
+        <v>14371</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1281</v>
       </c>
       <c r="O8" s="2">
-        <v>3891</v>
-      </c>
-      <c r="P8" s="2">
-        <v>4154</v>
+        <v>12179</v>
+      </c>
+      <c r="P8">
+        <v>911</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>161</v>
+        <f>QUOTIENT(K8,B8)</f>
+        <v>210</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>QUOTIENT(M8,B8)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
-        <v>3901.8</v>
+        <v>22409</v>
       </c>
       <c r="C9">
-        <v>336.6</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1471.8</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>120.5</v>
+        <v>2046</v>
       </c>
       <c r="F9">
-        <v>0.8</v>
+        <v>5084</v>
       </c>
       <c r="G9">
-        <v>543.29999999999995</v>
+        <v>12776</v>
       </c>
       <c r="H9">
-        <v>878.8</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>5.2</v>
+        <v>282</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2566701.79</v>
       </c>
       <c r="K9" s="1">
-        <v>203331.76</v>
-      </c>
-      <c r="L9" s="1">
-        <v>84239.9</v>
+        <v>863418.8</v>
+      </c>
+      <c r="L9" s="2">
+        <v>119518</v>
       </c>
       <c r="M9" s="2">
-        <v>4735</v>
-      </c>
-      <c r="N9">
-        <v>264</v>
+        <v>15502</v>
+      </c>
+      <c r="N9" s="2">
+        <v>68976</v>
       </c>
       <c r="O9" s="2">
-        <v>1696</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2775</v>
+        <v>35040</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f>QUOTIENT(K9,B9)</f>
+        <v>38</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>QUOTIENT(M9,B9)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
-        <v>18572.169999999998</v>
+        <v>17421.93</v>
       </c>
       <c r="C10">
-        <v>0.04</v>
+        <v>1444</v>
       </c>
       <c r="D10">
-        <v>0.31</v>
+        <v>5258</v>
       </c>
       <c r="E10">
-        <v>0.09</v>
+        <v>4778</v>
+      </c>
+      <c r="F10">
+        <v>622</v>
+      </c>
+      <c r="G10">
+        <v>571</v>
       </c>
       <c r="H10">
-        <v>0.45</v>
+        <v>1940</v>
+      </c>
+      <c r="I10">
+        <v>1333</v>
       </c>
       <c r="J10">
-        <v>0.11</v>
+        <v>90</v>
       </c>
       <c r="K10" s="1">
-        <v>1329683.31</v>
+        <v>3341607.07</v>
       </c>
       <c r="L10" s="1">
-        <v>713914.2</v>
+        <v>1425097.8</v>
       </c>
       <c r="M10" s="2">
-        <v>44647</v>
+        <v>117493</v>
       </c>
       <c r="N10" s="2">
-        <v>7703</v>
+        <v>4219</v>
       </c>
       <c r="O10" s="2">
-        <v>18152</v>
+        <v>53156</v>
       </c>
       <c r="P10" s="2">
-        <v>18793</v>
+        <v>60119</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <f>QUOTIENT(K10,B10)</f>
+        <v>191</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>QUOTIENT(M10,B10)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
-        <v>17421.93</v>
-      </c>
-      <c r="C11">
-        <v>1444</v>
-      </c>
-      <c r="D11">
-        <v>5258</v>
-      </c>
-      <c r="E11">
-        <v>4778</v>
-      </c>
-      <c r="F11">
-        <v>622</v>
+        <v>11468.09</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1680.1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1129.7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1917.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2763.2</v>
       </c>
       <c r="G11">
-        <v>571</v>
-      </c>
-      <c r="H11">
-        <v>1940</v>
+        <v>182.8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2429.6</v>
       </c>
       <c r="I11">
-        <v>1333</v>
+        <v>524.70000000000005</v>
       </c>
       <c r="J11">
-        <v>90</v>
+        <v>260.5</v>
       </c>
       <c r="K11" s="1">
-        <v>3341607.07</v>
+        <v>3798214.2</v>
       </c>
       <c r="L11" s="1">
-        <v>1425097.8</v>
+        <v>1221947.2</v>
       </c>
       <c r="M11" s="2">
-        <v>117493</v>
+        <v>99758</v>
       </c>
       <c r="N11" s="2">
-        <v>4219</v>
+        <v>6811</v>
       </c>
       <c r="O11" s="2">
-        <v>53156</v>
+        <v>95280</v>
       </c>
       <c r="P11" s="2">
-        <v>60119</v>
+        <v>-2333</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>191</v>
+        <f>QUOTIENT(K11,B11)</f>
+        <v>331</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>QUOTIENT(M11,B11)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
-        <v>1940</v>
+        <v>3901.8</v>
       </c>
       <c r="C12">
-        <v>708</v>
+        <v>336.6</v>
       </c>
       <c r="D12">
-        <v>499</v>
+        <v>1471.8</v>
       </c>
       <c r="E12">
-        <v>31.9</v>
+        <v>120.5</v>
       </c>
       <c r="F12">
-        <v>49</v>
+        <v>0.8</v>
       </c>
       <c r="G12">
-        <v>129</v>
+        <v>543.29999999999995</v>
       </c>
       <c r="H12">
-        <v>92</v>
+        <v>878.8</v>
       </c>
       <c r="I12">
-        <v>28</v>
-      </c>
-      <c r="J12">
-        <v>115</v>
+        <v>5.2</v>
       </c>
       <c r="K12" s="1">
-        <v>430108.1</v>
+        <v>203331.76</v>
       </c>
       <c r="L12" s="1">
-        <v>196160.4</v>
+        <v>84239.9</v>
       </c>
       <c r="M12" s="2">
-        <v>9412</v>
+        <v>4735</v>
       </c>
       <c r="N12">
-        <v>925</v>
+        <v>264</v>
       </c>
       <c r="O12" s="2">
-        <v>5601</v>
+        <v>1696</v>
       </c>
       <c r="P12" s="2">
-        <v>2887</v>
+        <v>2775</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>221</v>
+        <f>QUOTIENT(K12,B12)</f>
+        <v>52</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>QUOTIENT(M12,B12)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1">
-        <v>9566.1299999999992</v>
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>2053.0100000000002</v>
       </c>
       <c r="C13">
-        <v>1053.183</v>
+        <v>107.211</v>
       </c>
       <c r="D13">
-        <v>3039.5459999999998</v>
+        <v>492.88400000000001</v>
       </c>
       <c r="E13">
-        <v>3100.3009999999999</v>
+        <v>1043.396</v>
       </c>
       <c r="F13">
-        <v>506.709</v>
-      </c>
-      <c r="G13">
-        <v>69.849000000000004</v>
+        <v>14.319000000000001</v>
       </c>
       <c r="H13">
-        <v>619.82500000000005</v>
+        <v>168.01300000000001</v>
       </c>
       <c r="I13">
-        <v>477.30599999999998</v>
+        <v>4.976</v>
       </c>
       <c r="K13" s="1">
-        <v>1470933.93</v>
+        <v>391158.13</v>
       </c>
       <c r="L13" s="1">
-        <v>660063</v>
+        <v>135786.1</v>
       </c>
       <c r="M13" s="2">
-        <v>30019</v>
-      </c>
-      <c r="N13" s="2">
-        <v>1955</v>
+        <v>8131</v>
+      </c>
+      <c r="N13">
+        <v>665</v>
       </c>
       <c r="O13" s="2">
-        <v>10202</v>
+        <v>6087</v>
       </c>
       <c r="P13" s="2">
-        <v>17861</v>
+        <v>1379</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>153</v>
+        <f>QUOTIENT(K13,B13)</f>
+        <v>190</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f>QUOTIENT(M13,B13)</f>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>172.54</v>
+        <v>799.14</v>
+      </c>
+      <c r="C14">
+        <v>10.72</v>
+      </c>
+      <c r="D14">
+        <v>20.28</v>
+      </c>
+      <c r="E14">
+        <v>179.16</v>
+      </c>
+      <c r="F14">
+        <v>27.03</v>
+      </c>
+      <c r="G14">
+        <v>1.85</v>
+      </c>
+      <c r="H14">
+        <v>71.19</v>
+      </c>
+      <c r="I14">
+        <v>402.91</v>
+      </c>
+      <c r="J14">
+        <v>86</v>
       </c>
       <c r="K14" s="1">
-        <v>12061.06</v>
+        <v>128950.2</v>
       </c>
       <c r="L14" s="1">
-        <v>4352.8999999999996</v>
-      </c>
-      <c r="M14">
-        <v>203</v>
-      </c>
-      <c r="O14">
-        <v>11</v>
-      </c>
-      <c r="P14">
-        <v>192</v>
+        <v>53028.800000000003</v>
+      </c>
+      <c r="M14" s="2">
+        <v>8477</v>
+      </c>
+      <c r="N14">
+        <v>432</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3891</v>
+      </c>
+      <c r="P14" s="2">
+        <v>4154</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <f>QUOTIENT(K14,B14)</f>
+        <v>161</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>QUOTIENT(M14,B14)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1">
-        <v>3410.79</v>
+        <v>9566.1299999999992</v>
+      </c>
+      <c r="C15">
+        <v>1053.183</v>
+      </c>
+      <c r="D15">
+        <v>3039.5459999999998</v>
       </c>
       <c r="E15">
-        <v>0.49</v>
+        <v>3100.3009999999999</v>
       </c>
       <c r="F15">
-        <v>0.19</v>
+        <v>506.709</v>
+      </c>
+      <c r="G15">
+        <v>69.849000000000004</v>
       </c>
       <c r="H15">
-        <v>0.32</v>
+        <v>619.82500000000005</v>
+      </c>
+      <c r="I15">
+        <v>477.30599999999998</v>
       </c>
       <c r="K15" s="1">
-        <v>674427.93</v>
+        <v>1470933.93</v>
       </c>
       <c r="L15" s="1">
-        <v>288416.40000000002</v>
+        <v>660063</v>
       </c>
       <c r="M15" s="2">
-        <v>23242</v>
+        <v>30019</v>
       </c>
       <c r="N15" s="2">
-        <v>3592</v>
+        <v>1955</v>
       </c>
       <c r="O15" s="2">
-        <v>17547</v>
+        <v>10202</v>
       </c>
       <c r="P15" s="2">
-        <v>2103</v>
+        <v>17861</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>197</v>
+        <f>QUOTIENT(K15,B15)</f>
+        <v>153</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>QUOTIENT(M15,B15)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <v>2202.19</v>
-      </c>
-      <c r="D16">
-        <v>43.4</v>
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3410.79</v>
       </c>
       <c r="E16">
-        <v>842.8</v>
+        <v>0.49</v>
       </c>
       <c r="F16">
-        <v>429.3</v>
+        <v>0.19</v>
       </c>
       <c r="H16">
-        <v>718.6</v>
-      </c>
-      <c r="J16">
-        <v>21.9</v>
-      </c>
-      <c r="K16" s="2">
-        <v>566700</v>
+        <v>0.32</v>
+      </c>
+      <c r="K16" s="1">
+        <v>674427.93</v>
       </c>
       <c r="L16" s="1">
-        <v>180702.1</v>
+        <v>288416.40000000002</v>
       </c>
       <c r="M16" s="2">
-        <v>20000</v>
+        <v>23242</v>
       </c>
       <c r="N16" s="2">
-        <v>3800</v>
+        <v>3592</v>
       </c>
       <c r="O16" s="2">
-        <v>7194</v>
+        <v>17547</v>
       </c>
       <c r="P16" s="2">
-        <v>9006</v>
+        <v>2103</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>257</v>
+        <f>QUOTIENT(K16,B16)</f>
+        <v>197</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>QUOTIENT(M16,B16)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
-        <v>88.7</v>
-      </c>
-      <c r="K17" s="1">
-        <v>35050.550000000003</v>
+        <v>2202.19</v>
+      </c>
+      <c r="D17">
+        <v>43.4</v>
+      </c>
+      <c r="E17">
+        <v>842.8</v>
+      </c>
+      <c r="F17">
+        <v>429.3</v>
+      </c>
+      <c r="H17">
+        <v>718.6</v>
+      </c>
+      <c r="J17">
+        <v>21.9</v>
+      </c>
+      <c r="K17" s="2">
+        <v>566700</v>
       </c>
       <c r="L17" s="1">
-        <v>9040.2999999999993</v>
-      </c>
-      <c r="M17">
-        <v>841</v>
-      </c>
-      <c r="O17">
-        <v>411</v>
-      </c>
-      <c r="P17">
-        <v>430</v>
+        <v>180702.1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>20000</v>
+      </c>
+      <c r="N17" s="2">
+        <v>3800</v>
+      </c>
+      <c r="O17" s="2">
+        <v>7194</v>
+      </c>
+      <c r="P17" s="2">
+        <v>9006</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>395</v>
+        <f>QUOTIENT(K17,B17)</f>
+        <v>257</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f>QUOTIENT(M17,B17)</f>
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18">
-        <v>2053.0100000000002</v>
-      </c>
-      <c r="C18">
-        <v>107.211</v>
-      </c>
-      <c r="D18">
-        <v>492.88400000000001</v>
-      </c>
-      <c r="E18">
-        <v>1043.396</v>
-      </c>
-      <c r="F18">
-        <v>14.319000000000001</v>
-      </c>
-      <c r="H18">
-        <v>168.01300000000001</v>
-      </c>
-      <c r="I18">
-        <v>4.976</v>
+        <v>88.7</v>
       </c>
       <c r="K18" s="1">
-        <v>391158.13</v>
+        <v>35050.550000000003</v>
       </c>
       <c r="L18" s="1">
-        <v>135786.1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>8131</v>
-      </c>
-      <c r="N18">
-        <v>665</v>
-      </c>
-      <c r="O18" s="2">
-        <v>6087</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1379</v>
+        <v>9040.2999999999993</v>
+      </c>
+      <c r="M18">
+        <v>841</v>
+      </c>
+      <c r="O18">
+        <v>411</v>
+      </c>
+      <c r="P18">
+        <v>430</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>190</v>
+        <f>QUOTIENT(K18,B18)</f>
+        <v>395</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>QUOTIENT(M18,B18)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1924,11 +1952,11 @@
         <v>0.46</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f>QUOTIENT(K19,B19)</f>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f>QUOTIENT(M19,B19)</f>
         <v>0</v>
       </c>
     </row>
@@ -1982,226 +2010,217 @@
         <v>-27</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f>QUOTIENT(K20,B20)</f>
         <v>218</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f>QUOTIENT(M20,B20)</f>
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
-        <v>3889.6</v>
+        <v>9464.2000000000007</v>
       </c>
       <c r="C21">
-        <v>380</v>
+        <v>568.73500000000001</v>
       </c>
       <c r="D21">
-        <v>67</v>
+        <v>729.21500000000003</v>
       </c>
       <c r="E21">
-        <v>429</v>
+        <v>1647.9970000000001</v>
       </c>
       <c r="F21">
-        <v>1678</v>
+        <v>524.64</v>
       </c>
       <c r="G21">
-        <v>88</v>
+        <v>297.21499999999997</v>
       </c>
       <c r="H21">
-        <v>154</v>
+        <v>5364.2960000000003</v>
       </c>
       <c r="I21">
-        <v>210</v>
+        <v>122.84699999999999</v>
       </c>
       <c r="J21">
-        <v>1008</v>
+        <v>209.26</v>
       </c>
       <c r="K21" s="1">
-        <v>1223745.96</v>
+        <v>2668958.5</v>
       </c>
       <c r="L21" s="1">
-        <v>408436</v>
+        <v>891402</v>
       </c>
       <c r="M21" s="2">
-        <v>26391</v>
-      </c>
-      <c r="N21">
-        <v>620</v>
+        <v>77861</v>
+      </c>
+      <c r="N21" s="2">
+        <v>3065</v>
       </c>
       <c r="O21" s="2">
-        <v>19659</v>
+        <v>49586</v>
       </c>
       <c r="P21" s="2">
-        <v>6112</v>
+        <v>25211</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>314</v>
+        <f>QUOTIENT(K21,B21)</f>
+        <v>282</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>QUOTIENT(M21,B21)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
-        <v>9464.2000000000007</v>
-      </c>
-      <c r="C22">
-        <v>568.73500000000001</v>
+        <v>3340.71</v>
       </c>
       <c r="D22">
-        <v>729.21500000000003</v>
+        <v>1050</v>
       </c>
       <c r="E22">
-        <v>1647.9970000000001</v>
-      </c>
-      <c r="F22">
-        <v>524.64</v>
-      </c>
-      <c r="G22">
-        <v>297.21499999999997</v>
+        <v>815</v>
       </c>
       <c r="H22">
-        <v>5364.2960000000003</v>
+        <v>1109.229</v>
       </c>
       <c r="I22">
-        <v>122.84699999999999</v>
-      </c>
-      <c r="J22">
-        <v>209.26</v>
+        <v>28.798999999999999</v>
       </c>
       <c r="K22" s="1">
-        <v>2668958.5</v>
+        <v>181204.65</v>
       </c>
       <c r="L22" s="1">
-        <v>891402</v>
+        <v>87337.4</v>
       </c>
       <c r="M22" s="2">
-        <v>77861</v>
+        <v>24221</v>
       </c>
       <c r="N22" s="2">
-        <v>3065</v>
+        <v>6211</v>
       </c>
       <c r="O22" s="2">
-        <v>49586</v>
-      </c>
-      <c r="P22" s="2">
-        <v>25211</v>
+        <v>17217</v>
+      </c>
+      <c r="P22">
+        <v>793</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>282</v>
+        <f>QUOTIENT(K22,B22)</f>
+        <v>54</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>QUOTIENT(M22,B22)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1">
-        <v>3340.71</v>
+        <v>6981.62</v>
+      </c>
+      <c r="C23">
+        <v>2164.3022000000001</v>
       </c>
       <c r="D23">
-        <v>1050</v>
+        <v>1256.692</v>
       </c>
       <c r="E23">
-        <v>815</v>
-      </c>
-      <c r="H23">
-        <v>1109.229</v>
+        <v>1466.1402</v>
+      </c>
+      <c r="F23">
+        <v>1605.7726</v>
+      </c>
+      <c r="G23">
+        <v>349.08100000000002</v>
       </c>
       <c r="I23">
-        <v>28.798999999999999</v>
+        <v>139.63239999999999</v>
       </c>
       <c r="K23" s="1">
-        <v>181204.65</v>
+        <v>2409952.9900000002</v>
       </c>
       <c r="L23" s="1">
-        <v>87337.4</v>
+        <v>812500.4</v>
       </c>
       <c r="M23" s="2">
-        <v>24221</v>
-      </c>
-      <c r="N23" s="2">
-        <v>6211</v>
+        <v>52364</v>
+      </c>
+      <c r="N23">
+        <v>808</v>
       </c>
       <c r="O23" s="2">
-        <v>17217</v>
-      </c>
-      <c r="P23">
-        <v>793</v>
+        <v>18531</v>
+      </c>
+      <c r="P23" s="2">
+        <v>33025</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f>QUOTIENT(K23,B23)</f>
+        <v>345</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
+        <f>QUOTIENT(M23,B23)</f>
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
-        <v>6981.62</v>
-      </c>
-      <c r="C24">
-        <v>2164.3022000000001</v>
-      </c>
-      <c r="D24">
-        <v>1256.692</v>
+        <v>1951.49</v>
       </c>
       <c r="E24">
-        <v>1466.1402</v>
+        <v>1218.0239999999999</v>
       </c>
       <c r="F24">
-        <v>1605.7726</v>
+        <v>511.43900000000002</v>
       </c>
       <c r="G24">
-        <v>349.08100000000002</v>
+        <v>80.475999999999999</v>
+      </c>
+      <c r="H24">
+        <v>143.25399999999999</v>
       </c>
       <c r="I24">
-        <v>139.63239999999999</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2409952.9900000002</v>
+        <v>63.491</v>
+      </c>
+      <c r="K24" s="2">
+        <v>542666</v>
       </c>
       <c r="L24" s="1">
-        <v>812500.4</v>
+        <v>194978.1</v>
       </c>
       <c r="M24" s="2">
-        <v>52364</v>
+        <v>13411</v>
       </c>
       <c r="N24">
-        <v>808</v>
+        <v>556</v>
       </c>
       <c r="O24" s="2">
-        <v>18531</v>
+        <v>8534</v>
       </c>
       <c r="P24" s="2">
-        <v>33025</v>
+        <v>4321</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>345</v>
+        <f>QUOTIENT(K24,B24)</f>
+        <v>278</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>QUOTIENT(M24,B24)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2230,368 +2249,453 @@
         <v>2630</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
+        <f>QUOTIENT(K25,B25)</f>
         <v>304</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
+        <f>QUOTIENT(M25,B25)</f>
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
-        <v>1951.49</v>
+        <v>18572.169999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.04</v>
+      </c>
+      <c r="D26">
+        <v>0.31</v>
       </c>
       <c r="E26">
-        <v>1218.0239999999999</v>
-      </c>
-      <c r="F26">
-        <v>511.43900000000002</v>
-      </c>
-      <c r="G26">
-        <v>80.475999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="H26">
-        <v>143.25399999999999</v>
-      </c>
-      <c r="I26">
-        <v>63.491</v>
-      </c>
-      <c r="K26" s="2">
-        <v>542666</v>
+        <v>0.45</v>
+      </c>
+      <c r="J26">
+        <v>0.11</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1329683.31</v>
       </c>
       <c r="L26" s="1">
-        <v>194978.1</v>
+        <v>713914.2</v>
       </c>
       <c r="M26" s="2">
-        <v>13411</v>
-      </c>
-      <c r="N26">
-        <v>556</v>
+        <v>44647</v>
+      </c>
+      <c r="N26" s="2">
+        <v>7703</v>
       </c>
       <c r="O26" s="2">
-        <v>8534</v>
+        <v>18152</v>
       </c>
       <c r="P26" s="2">
-        <v>4321</v>
+        <v>18793</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
-        <v>278</v>
+        <f>QUOTIENT(K26,B26)</f>
+        <v>71</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>QUOTIENT(M26,B26)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="1">
-        <v>22409</v>
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>27980</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>234.29</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>2046</v>
+        <v>1522.885</v>
       </c>
       <c r="F27">
-        <v>5084</v>
+        <v>6419.5460000000003</v>
       </c>
       <c r="G27">
-        <v>12776</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>9816.7510000000002</v>
       </c>
       <c r="I27">
-        <v>282</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2566701.79</v>
+        <v>2998.9119999999998</v>
+      </c>
+      <c r="J27">
+        <v>2436.616</v>
       </c>
       <c r="K27" s="1">
-        <v>863418.8</v>
-      </c>
-      <c r="L27" s="2">
-        <v>119518</v>
+        <v>3599997.19</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1355071.4</v>
       </c>
       <c r="M27" s="2">
-        <v>15502</v>
+        <v>124036</v>
       </c>
       <c r="N27" s="2">
-        <v>68976</v>
+        <v>21913</v>
       </c>
       <c r="O27" s="2">
-        <v>35040</v>
+        <v>84900</v>
+      </c>
+      <c r="P27" s="2">
+        <v>17223</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f>QUOTIENT(K27,B27)</f>
+        <v>128</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>QUOTIENT(M27,B27)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28">
-        <v>27980</v>
+        <v>80</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3190</v>
       </c>
       <c r="C28">
-        <v>234.29</v>
+        <v>94</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E28">
-        <v>1522.885</v>
+        <v>1023</v>
       </c>
       <c r="F28">
-        <v>6419.5460000000003</v>
+        <v>724.6028</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>9816.7510000000002</v>
+        <v>328.86642999999998</v>
       </c>
       <c r="I28">
-        <v>2998.9119999999998</v>
+        <v>189.66721000000001</v>
       </c>
       <c r="J28">
-        <v>2436.616</v>
-      </c>
-      <c r="K28" s="1">
-        <v>3599997.19</v>
+        <v>610.86</v>
+      </c>
+      <c r="K28">
+        <v>395700</v>
       </c>
       <c r="L28" s="1">
-        <v>1355071.4</v>
+        <v>252010</v>
       </c>
       <c r="M28" s="2">
-        <v>124036</v>
+        <v>20400</v>
       </c>
       <c r="N28" s="2">
-        <v>21913</v>
+        <v>1596</v>
       </c>
       <c r="O28" s="2">
-        <v>84900</v>
+        <v>13300</v>
       </c>
       <c r="P28" s="2">
-        <v>17223</v>
+        <v>5504</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>128</v>
+        <f>QUOTIENT(K28,B28)</f>
+        <v>124</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
+        <f>QUOTIENT(M28,B28)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R28">
+    <sortCondition ref="A2:A28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C68437-8BCD-45F5-ACC2-9439FF556B31}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>1588.68</v>
+      </c>
+      <c r="C3" s="1">
+        <v>381438.28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>194352</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9462</v>
+      </c>
+      <c r="F3">
+        <v>473</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5302</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3687</v>
+      </c>
+      <c r="Q3">
+        <f>QUOTIENT(K3,B3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>QUOTIENT(M3,B3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1940</v>
+      </c>
+      <c r="C4">
+        <v>708</v>
+      </c>
+      <c r="D4">
+        <v>499</v>
+      </c>
+      <c r="E4">
+        <v>31.9</v>
+      </c>
+      <c r="F4">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <v>129</v>
+      </c>
+      <c r="H4">
+        <v>92</v>
+      </c>
+      <c r="I4">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>115</v>
+      </c>
+      <c r="K4" s="1">
+        <v>430108.1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>196160.4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>9412</v>
+      </c>
+      <c r="N4">
+        <v>925</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5601</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2887</v>
+      </c>
+      <c r="Q4">
+        <f>QUOTIENT(K4,B4)</f>
+        <v>221</v>
+      </c>
+      <c r="R4">
+        <f>QUOTIENT(M4,B4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B29">
+      <c r="B5">
         <v>6.7</v>
       </c>
-      <c r="L29">
+      <c r="L5">
         <v>907.2</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
+      <c r="Q5">
+        <f>QUOTIENT(K5,B5)</f>
         <v>0</v>
       </c>
-      <c r="R29">
-        <f t="shared" si="1"/>
+      <c r="R5">
+        <f>QUOTIENT(M5,B5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B6" s="1">
         <v>11442</v>
       </c>
-      <c r="C30">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="D6">
         <v>113</v>
       </c>
-      <c r="E30">
+      <c r="E6">
         <v>4586</v>
       </c>
-      <c r="F30">
+      <c r="F6">
         <v>3165</v>
       </c>
-      <c r="G30">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="H30">
+      <c r="H6">
         <v>3417</v>
       </c>
-      <c r="I30">
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="J6">
         <v>161</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K6" s="1">
         <v>967261</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L6" s="1">
         <v>494751.6</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M6" s="2">
         <v>23867</v>
       </c>
-      <c r="Q30">
-        <f>QUOTIENT(K30,B30)</f>
+      <c r="Q6">
+        <f>QUOTIENT(K6,B6)</f>
         <v>84</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="1"/>
+      <c r="R6">
+        <f>QUOTIENT(M6,B6)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B7" s="1">
         <v>1269.1099999999999</v>
       </c>
-      <c r="I31">
+      <c r="I7">
         <v>797.67399999999998</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K7" s="1">
         <v>437611.76</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L7" s="1">
         <v>154920.29999999999</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M7" s="2">
         <v>8006</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O7" s="2">
         <v>5684</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P7" s="2">
         <v>2322</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="0"/>
+      <c r="Q7">
+        <f>QUOTIENT(K7,B7)</f>
         <v>344</v>
       </c>
-      <c r="R31">
-        <f t="shared" si="1"/>
+      <c r="R7">
+        <f>QUOTIENT(M7,B7)</f>
         <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3190</v>
-      </c>
-      <c r="C32">
-        <v>94</v>
-      </c>
-      <c r="D32">
-        <v>219</v>
-      </c>
-      <c r="E32">
-        <v>1023</v>
-      </c>
-      <c r="F32">
-        <v>724.6028</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>328.86642999999998</v>
-      </c>
-      <c r="I32">
-        <v>189.66721000000001</v>
-      </c>
-      <c r="J32">
-        <v>610.86</v>
-      </c>
-      <c r="K32">
-        <v>395700</v>
-      </c>
-      <c r="L32" s="1">
-        <v>252010</v>
-      </c>
-      <c r="M32" s="2">
-        <v>20400</v>
-      </c>
-      <c r="N32" s="2">
-        <v>1596</v>
-      </c>
-      <c r="O32" s="2">
-        <v>13300</v>
-      </c>
-      <c r="P32" s="2">
-        <v>5504</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33">
-        <v>1588.68</v>
-      </c>
-      <c r="C33" s="1">
-        <v>381438.28</v>
-      </c>
-      <c r="D33" s="1">
-        <v>194352</v>
-      </c>
-      <c r="E33" s="2">
-        <v>9462</v>
-      </c>
-      <c r="F33">
-        <v>473</v>
-      </c>
-      <c r="G33" s="2">
-        <v>5302</v>
-      </c>
-      <c r="H33" s="2">
-        <v>3687</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1ED5BD-A9BB-4C9D-A1DE-B4054A2771B8}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -2614,42 +2718,42 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2657,15 +2761,15 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="9"/>
@@ -2675,10 +2779,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2686,21 +2790,21 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2708,21 +2812,21 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2730,10 +2834,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2741,10 +2845,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/raw/Data Thomas.xlsx
+++ b/data/raw/Data Thomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBDFB3-F705-4708-84B8-FF3870A14D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9213FA2A-B097-49D1-AC02-30E3CCF31A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="96" windowWidth="11712" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/data/raw/Data Thomas.xlsx
+++ b/data/raw/Data Thomas.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9213FA2A-B097-49D1-AC02-30E3CCF31A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E097FD67-184E-45D9-AEB0-61E4EA817F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12828" yWindow="0" windowWidth="10308" windowHeight="13056" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="4" r:id="rId3"/>
+    <sheet name="Excluded data" sheetId="4" r:id="rId3"/>
     <sheet name="Description" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -227,9 +227,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>Maximum Potential of biomass per species. This was estimated using experimental data</t>
-  </si>
-  <si>
     <t>Total Area in each country.</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
     <t>A_ton</t>
   </si>
   <si>
-    <t>Maximum Potential of biomass per species. Result of A_ton*biomass densities</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
@@ -288,6 +282,12 @@
   </si>
   <si>
     <t>Data not available in all approaches</t>
+  </si>
+  <si>
+    <t>Maximum Potential of biomass per species. Result of A_ton*biomass densities. This parameter is used in the model</t>
+  </si>
+  <si>
+    <t>Maximum Potential of biomass per species. This was estimated using experimental data and is taken from the paper.</t>
   </si>
 </sst>
 </file>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -794,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381C8BB-E21A-4143-8742-EF4DFE92B827}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N1" t="s">
         <v>20</v>
@@ -1110,11 +1110,11 @@
         <v>6112</v>
       </c>
       <c r="Q2">
-        <f>QUOTIENT(K2,B2)</f>
+        <f t="shared" ref="Q2:Q28" si="0">QUOTIENT(K2,B2)</f>
         <v>314</v>
       </c>
       <c r="R2">
-        <f>QUOTIENT(M2,B2)</f>
+        <f t="shared" ref="R2:R28" si="1">QUOTIENT(M2,B2)</f>
         <v>6</v>
       </c>
     </row>
@@ -1165,11 +1165,11 @@
         <v>454</v>
       </c>
       <c r="Q3">
-        <f>QUOTIENT(K3,B3)</f>
+        <f t="shared" si="0"/>
         <v>264</v>
       </c>
       <c r="R3">
-        <f>QUOTIENT(M3,B3)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -1217,11 +1217,11 @@
         <v>7447</v>
       </c>
       <c r="Q4">
-        <f>QUOTIENT(K4,B4)</f>
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
       <c r="R4">
-        <f>QUOTIENT(M4,B4)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1248,11 +1248,11 @@
         <v>192</v>
       </c>
       <c r="Q5">
-        <f>QUOTIENT(K5,B5)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="R5">
-        <f>QUOTIENT(M5,B5)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1306,11 +1306,11 @@
         <v>-13920</v>
       </c>
       <c r="Q6">
-        <f>QUOTIENT(K6,B6)</f>
+        <f t="shared" si="0"/>
         <v>287</v>
       </c>
       <c r="R6">
-        <f>QUOTIENT(M6,B6)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -1364,11 +1364,11 @@
         <v>1378</v>
       </c>
       <c r="Q7">
-        <f>QUOTIENT(K7,B7)</f>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="R7">
-        <f>QUOTIENT(M7,B7)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1422,11 +1422,11 @@
         <v>911</v>
       </c>
       <c r="Q8">
-        <f>QUOTIENT(K8,B8)</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="R8">
-        <f>QUOTIENT(M8,B8)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1477,11 +1477,11 @@
         <v>35040</v>
       </c>
       <c r="Q9">
-        <f>QUOTIENT(K9,B9)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="R9">
-        <f>QUOTIENT(M9,B9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1535,11 +1535,11 @@
         <v>60119</v>
       </c>
       <c r="Q10">
-        <f>QUOTIENT(K10,B10)</f>
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
       <c r="R10">
-        <f>QUOTIENT(M10,B10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1593,11 +1593,11 @@
         <v>-2333</v>
       </c>
       <c r="Q11">
-        <f>QUOTIENT(K11,B11)</f>
+        <f t="shared" si="0"/>
         <v>331</v>
       </c>
       <c r="R11">
-        <f>QUOTIENT(M11,B11)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1648,11 +1648,11 @@
         <v>2775</v>
       </c>
       <c r="Q12">
-        <f>QUOTIENT(K12,B12)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="R12">
-        <f>QUOTIENT(M12,B12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1700,11 +1700,11 @@
         <v>1379</v>
       </c>
       <c r="Q13">
-        <f>QUOTIENT(K13,B13)</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="R13">
-        <f>QUOTIENT(M13,B13)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1758,11 +1758,11 @@
         <v>4154</v>
       </c>
       <c r="Q14">
-        <f>QUOTIENT(K14,B14)</f>
+        <f t="shared" si="0"/>
         <v>161</v>
       </c>
       <c r="R14">
-        <f>QUOTIENT(M14,B14)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1813,11 +1813,11 @@
         <v>17861</v>
       </c>
       <c r="Q15">
-        <f>QUOTIENT(K15,B15)</f>
+        <f t="shared" si="0"/>
         <v>153</v>
       </c>
       <c r="R15">
-        <f>QUOTIENT(M15,B15)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1856,11 +1856,11 @@
         <v>2103</v>
       </c>
       <c r="Q16">
-        <f>QUOTIENT(K16,B16)</f>
+        <f t="shared" si="0"/>
         <v>197</v>
       </c>
       <c r="R16">
-        <f>QUOTIENT(M16,B16)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1905,11 +1905,11 @@
         <v>9006</v>
       </c>
       <c r="Q17">
-        <f>QUOTIENT(K17,B17)</f>
+        <f t="shared" si="0"/>
         <v>257</v>
       </c>
       <c r="R17">
-        <f>QUOTIENT(M17,B17)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -1936,11 +1936,11 @@
         <v>430</v>
       </c>
       <c r="Q18">
-        <f>QUOTIENT(K18,B18)</f>
+        <f t="shared" si="0"/>
         <v>395</v>
       </c>
       <c r="R18">
-        <f>QUOTIENT(M18,B18)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -1952,11 +1952,11 @@
         <v>0.46</v>
       </c>
       <c r="Q19">
-        <f>QUOTIENT(K19,B19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f>QUOTIENT(M19,B19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2010,11 +2010,11 @@
         <v>-27</v>
       </c>
       <c r="Q20">
-        <f>QUOTIENT(K20,B20)</f>
+        <f t="shared" si="0"/>
         <v>218</v>
       </c>
       <c r="R20">
-        <f>QUOTIENT(M20,B20)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -2068,11 +2068,11 @@
         <v>25211</v>
       </c>
       <c r="Q21">
-        <f>QUOTIENT(K21,B21)</f>
+        <f t="shared" si="0"/>
         <v>282</v>
       </c>
       <c r="R21">
-        <f>QUOTIENT(M21,B21)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -2114,11 +2114,11 @@
         <v>793</v>
       </c>
       <c r="Q22">
-        <f>QUOTIENT(K22,B22)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="R22">
-        <f>QUOTIENT(M22,B22)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -2166,11 +2166,11 @@
         <v>33025</v>
       </c>
       <c r="Q23">
-        <f>QUOTIENT(K23,B23)</f>
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
       <c r="R23">
-        <f>QUOTIENT(M23,B23)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -2215,11 +2215,11 @@
         <v>4321</v>
       </c>
       <c r="Q24">
-        <f>QUOTIENT(K24,B24)</f>
+        <f t="shared" si="0"/>
         <v>278</v>
       </c>
       <c r="R24">
-        <f>QUOTIENT(M24,B24)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -2249,11 +2249,11 @@
         <v>2630</v>
       </c>
       <c r="Q25">
-        <f>QUOTIENT(K25,B25)</f>
+        <f t="shared" si="0"/>
         <v>304</v>
       </c>
       <c r="R25">
-        <f>QUOTIENT(M25,B25)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -2298,11 +2298,11 @@
         <v>18793</v>
       </c>
       <c r="Q26">
-        <f>QUOTIENT(K26,B26)</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="R26">
-        <f>QUOTIENT(M26,B26)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2356,17 +2356,17 @@
         <v>17223</v>
       </c>
       <c r="Q27">
-        <f>QUOTIENT(K27,B27)</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="R27">
-        <f>QUOTIENT(M27,B27)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1">
         <v>3190</v>
@@ -2414,11 +2414,11 @@
         <v>5504</v>
       </c>
       <c r="Q28">
-        <f>QUOTIENT(K28,B28)</f>
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="R28">
-        <f>QUOTIENT(M28,B28)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -2434,18 +2434,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C68437-8BCD-45F5-ACC2-9439FF556B31}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -2480,13 +2480,13 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -2700,6 +2700,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2708,7 +2709,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2736,24 +2737,24 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2761,10 +2762,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2779,10 +2780,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2790,21 +2791,21 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2812,21 +2813,21 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2834,10 +2835,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2845,10 +2846,10 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/raw/Data Thomas.xlsx
+++ b/data/raw/Data Thomas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E097FD67-184E-45D9-AEB0-61E4EA817F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870EDB74-48A2-41B3-B972-D5F37E2EAEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12828" yWindow="0" windowWidth="10308" windowHeight="13056" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,8 +823,8 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H2">
-        <f>PRODUCT(C2,G2)</f>
-        <v>362.88274000000001</v>
+        <f>C2/G2</f>
+        <v>1199.6123636363634</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -850,8 +850,8 @@
         <v>0.41</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H8" si="0">PRODUCT(C3,G3)</f>
-        <v>184.37011199999998</v>
+        <f t="shared" ref="H3:H8" si="0">C3/G3</f>
+        <v>1096.7882926829268</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -878,7 +878,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>141.819534</v>
+        <v>982.12973684210522</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -905,7 +905,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>175.55783699999998</v>
+        <v>731.18632653061218</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -932,7 +932,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>567.9492560000001</v>
+        <v>1811.0626785714285</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -959,7 +959,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>160.556625</v>
+        <v>868.34302325581393</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>244.49078399999999</v>
+        <v>1693.1494736842105</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2434,7 +2434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C68437-8BCD-45F5-ACC2-9439FF556B31}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2709,7 +2709,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/Data Thomas.xlsx
+++ b/data/raw/Data Thomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870EDB74-48A2-41B3-B972-D5F37E2EAEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955DC89E-205B-488F-B1D5-BAC873E67399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>Species</t>
   </si>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>Maximum Potential of biomass per species. This was estimated using experimental data and is taken from the paper.</t>
+  </si>
+  <si>
+    <t>conversion Carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumed average carbon content of biomass of 0.5 ton Carbon per ton biomass. </t>
+  </si>
+  <si>
+    <t>tC/t Biomass</t>
+  </si>
+  <si>
+    <t>carbon conversion</t>
   </si>
 </sst>
 </file>
@@ -760,21 +772,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,13 +807,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -820,14 +836,17 @@
         <v>0.97740000000000005</v>
       </c>
       <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H2">
-        <f>C2/G2</f>
+      <c r="I2">
+        <f>C2/H2</f>
         <v>1199.6123636363634</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -847,14 +866,17 @@
         <v>0.9546</v>
       </c>
       <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
         <v>0.41</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H8" si="0">C3/G3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="0">C3/H3</f>
         <v>1096.7882926829268</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -874,14 +896,17 @@
         <v>0.96289999999999998</v>
       </c>
       <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
         <v>0.38</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>982.12973684210522</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -901,14 +926,17 @@
         <v>0.96840000000000004</v>
       </c>
       <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
         <v>0.49</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>731.18632653061218</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -928,14 +956,17 @@
         <v>0.95850000000000002</v>
       </c>
       <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>1811.0626785714285</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -955,14 +986,17 @@
         <v>0.97570000000000001</v>
       </c>
       <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
         <v>0.43</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>868.34302325581393</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1016,12 @@
         <v>0.97989999999999999</v>
       </c>
       <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
         <v>0.38</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>1693.1494736842105</v>
       </c>
@@ -998,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381C8BB-E21A-4143-8742-EF4DFE92B827}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2706,14 +2743,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1ED5BD-A9BB-4C9D-A1DE-B4054A2771B8}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="57.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2759,101 +2797,109 @@
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
@@ -2881,6 +2927,9 @@
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
